--- a/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S18/S18_lossmod.xlsx
+++ b/in-progress/Mortezaei_2011_CompSciTech/SUBMISSION/S18/S18_lossmod.xlsx
@@ -14,150 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Frequency (Hz)</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>0.024410341123686164</t>
-  </si>
-  <si>
-    <t>0.037291348818741465</t>
-  </si>
-  <si>
-    <t>0.05885239191657295</t>
-  </si>
-  <si>
-    <t>0.09286286450083381</t>
-  </si>
-  <si>
-    <t>0.14651902185837223</t>
-  </si>
-  <si>
-    <t>0.22372339251600107</t>
-  </si>
-  <si>
-    <t>0.3473293422433605</t>
-  </si>
-  <si>
-    <t>0.5569932894524461</t>
-  </si>
-  <si>
-    <t>0.8507072119218843</t>
-  </si>
-  <si>
-    <t>1.3426211667166588</t>
-  </si>
-  <si>
-    <t>2.1185145313635174</t>
-  </si>
-  <si>
-    <t>3.3435001930881203</t>
-  </si>
-  <si>
-    <t>5.1081670190230835</t>
-  </si>
-  <si>
-    <t>8.330703682718655</t>
-  </si>
-  <si>
-    <t>13.151274066186822</t>
-  </si>
-  <si>
-    <t>20.095438588844655</t>
-  </si>
-  <si>
-    <t>31.72419201497739</t>
-  </si>
-  <si>
-    <t>50.08903165443485</t>
-  </si>
-  <si>
-    <t>79.10206224839214</t>
-  </si>
-  <si>
-    <t>122.85892033936265</t>
-  </si>
-  <si>
-    <t>190.90359405881213</t>
-  </si>
-  <si>
-    <t>301.38821672129006</t>
-  </si>
-  <si>
-    <t>468.2234932092154</t>
-  </si>
-  <si>
-    <t>4964.098441983544</t>
-  </si>
-  <si>
-    <t>5759.688105028683</t>
-  </si>
-  <si>
-    <t>6864.403655622983</t>
-  </si>
-  <si>
-    <t>8469.054160468699</t>
-  </si>
-  <si>
-    <t>10570.034937886734</t>
-  </si>
-  <si>
-    <t>13501.44151509514</t>
-  </si>
-  <si>
-    <t>16341.235712837188</t>
-  </si>
-  <si>
-    <t>20710.183311670327</t>
-  </si>
-  <si>
-    <t>25164.029703969292</t>
-  </si>
-  <si>
-    <t>29760.787974589904</t>
-  </si>
-  <si>
-    <t>36717.78902579016</t>
-  </si>
-  <si>
-    <t>43491.93005845022</t>
-  </si>
-  <si>
-    <t>49806.94721502164</t>
-  </si>
-  <si>
-    <t>57335.30811867751</t>
-  </si>
-  <si>
-    <t>64502.851919337394</t>
-  </si>
-  <si>
-    <t>71741.36545264453</t>
-  </si>
-  <si>
-    <t>80461.95122995548</t>
-  </si>
-  <si>
-    <t>87913.74992182813</t>
-  </si>
-  <si>
-    <t>92172.31000034083</t>
-  </si>
-  <si>
-    <t>102602.78016350538</t>
-  </si>
-  <si>
-    <t>105057.56916064757</t>
-  </si>
-  <si>
-    <t>116835.46669905155</t>
-  </si>
-  <si>
-    <t>123975.25218911731</t>
+    <t>Loss modulus (Pa)</t>
   </si>
 </sst>
 </file>
@@ -530,187 +392,187 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>25</v>
+      <c r="A2">
+        <v>0.02441034112368616</v>
+      </c>
+      <c r="B2">
+        <v>4964.098441983544</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
+      <c r="A3">
+        <v>0.03729134881874147</v>
+      </c>
+      <c r="B3">
+        <v>5759.688105028683</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
+      <c r="A4">
+        <v>0.05885239191657295</v>
+      </c>
+      <c r="B4">
+        <v>6864.403655622983</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
+      <c r="A5">
+        <v>0.09286286450083381</v>
+      </c>
+      <c r="B5">
+        <v>8469.054160468699</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
+      <c r="A6">
+        <v>0.1465190218583722</v>
+      </c>
+      <c r="B6">
+        <v>10570.03493788673</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+      <c r="A7">
+        <v>0.2237233925160011</v>
+      </c>
+      <c r="B7">
+        <v>13501.44151509514</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
+      <c r="A8">
+        <v>0.3473293422433605</v>
+      </c>
+      <c r="B8">
+        <v>16341.23571283719</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
+      <c r="A9">
+        <v>0.5569932894524461</v>
+      </c>
+      <c r="B9">
+        <v>20710.18331167033</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
+      <c r="A10">
+        <v>0.8507072119218843</v>
+      </c>
+      <c r="B10">
+        <v>25164.02970396929</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>34</v>
+      <c r="A11">
+        <v>1.342621166716659</v>
+      </c>
+      <c r="B11">
+        <v>29760.7879745899</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>35</v>
+      <c r="A12">
+        <v>2.118514531363517</v>
+      </c>
+      <c r="B12">
+        <v>36717.78902579016</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>36</v>
+      <c r="A13">
+        <v>3.34350019308812</v>
+      </c>
+      <c r="B13">
+        <v>43491.93005845022</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" t="s">
-        <v>37</v>
+      <c r="A14">
+        <v>5.108167019023083</v>
+      </c>
+      <c r="B14">
+        <v>49806.94721502164</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
+      <c r="A15">
+        <v>8.330703682718655</v>
+      </c>
+      <c r="B15">
+        <v>57335.30811867751</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
+      <c r="A16">
+        <v>13.15127406618682</v>
+      </c>
+      <c r="B16">
+        <v>64502.85191933739</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="A17">
+        <v>20.09543858884465</v>
+      </c>
+      <c r="B17">
+        <v>71741.36545264453</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
+      <c r="A18">
+        <v>31.72419201497739</v>
+      </c>
+      <c r="B18">
+        <v>80461.95122995548</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" t="s">
-        <v>42</v>
+      <c r="A19">
+        <v>50.08903165443485</v>
+      </c>
+      <c r="B19">
+        <v>87913.74992182813</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
+      <c r="A20">
+        <v>79.10206224839214</v>
+      </c>
+      <c r="B20">
+        <v>92172.31000034083</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" t="s">
-        <v>44</v>
+      <c r="A21">
+        <v>122.8589203393627</v>
+      </c>
+      <c r="B21">
+        <v>102602.7801635054</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" t="s">
-        <v>45</v>
+      <c r="A22">
+        <v>190.9035940588121</v>
+      </c>
+      <c r="B22">
+        <v>105057.5691606476</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>46</v>
+      <c r="A23">
+        <v>301.3882167212901</v>
+      </c>
+      <c r="B23">
+        <v>116835.4666990516</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>47</v>
+      <c r="A24">
+        <v>468.2234932092154</v>
+      </c>
+      <c r="B24">
+        <v>123975.2521891173</v>
       </c>
     </row>
   </sheetData>
